--- a/results_step5_reserve.xlsx
+++ b/results_step5_reserve.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="115_{3E744931-FCFF-4FE0-BA53-9F44A19987D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Up_Gen" sheetId="1" r:id="rId1"/>
-    <sheet name="Down_Gen" sheetId="2" r:id="rId2"/>
-    <sheet name="Up_El" sheetId="3" r:id="rId3"/>
-    <sheet name="Down_El" sheetId="4" r:id="rId4"/>
+    <sheet name="Down_Gen" r:id="rId5" sheetId="2"/>
+    <sheet name="Up_El" r:id="rId6" sheetId="3"/>
+    <sheet name="Down_El" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>x1</t>
   </si>
@@ -414,14 +414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265999B-42E6-4147-8DA2-BE5E5F7D1C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,916 +459,916 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1377,14 +1377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190A8B2-1663-4A1A-BAEC-13E41B3D6662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1422,916 +1422,916 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2340,14 +2340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0716A355-2F80-49A2-920D-8DA3CCFB0026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2355,193 +2355,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
         <v>22.197999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
         <v>20.872749999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
         <v>19.87875</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
-        <v>19.547249999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19.54725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
-        <v>19.547249999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19.54725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
         <v>19.87875</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
         <v>24.517125000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
         <v>28.492874999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B10">
         <v>31.474625</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
         <v>31.805999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
         <v>31.805999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
         <v>31.474625</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
         <v>31.474625</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
         <v>31.474625</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
         <v>30.811999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
         <v>30.811999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>32.799874999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32.79987499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
         <v>33.131125000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B20">
         <v>33.131125000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
         <v>31.805999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B22">
         <v>30.1495</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B23">
-        <v>27.498875000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27.498875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B24">
         <v>24.185749999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B25">
         <v>20.872749999999996</v>
@@ -2553,14 +2553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928931E2-32B8-4370-A812-BB9C164208C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2568,196 +2568,196 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
         <v>29.597333333333342</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
-        <v>27.830333333333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27.83033333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
         <v>26.505000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
         <v>26.063000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
         <v>26.063000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
         <v>26.505000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
-        <v>32.689500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32.6895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
         <v>37.990500000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B10">
-        <v>41.966166666666659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41.96616666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
         <v>42.407999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
         <v>42.407999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
-        <v>41.966166666666659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41.96616666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
-        <v>41.966166666666659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41.96616666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
-        <v>41.966166666666659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41.96616666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
         <v>41.082666666666675</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
         <v>41.082666666666675</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>43.733166666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43.73316666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
-        <v>44.174833333333332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44.17483333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B20">
-        <v>44.174833333333332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44.17483333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
         <v>42.407999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B22">
         <v>40.199333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B23">
-        <v>36.665166666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36.66516666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B24">
-        <v>32.247666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32.24766666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B25">
-        <v>27.830333333333339</v>
+        <v>27.83033333333334</v>
       </c>
     </row>
   </sheetData>
